--- a/$Resource/Valeo_IKS_Aview_Focus_Active_Alignment_Template.xlsx
+++ b/$Resource/Valeo_IKS_Aview_Focus_Active_Alignment_Template.xlsx
@@ -287,6 +287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -537,12 +544,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,7 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,15 +607,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,17 +627,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,9 +658,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,17 +696,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,29 +728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,7 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,31 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,31 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,49 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +858,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +906,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,24 +970,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="51">
     <border>
@@ -1492,11 +1492,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,6 +1531,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1541,21 +1565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1572,15 +1581,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1592,148 +1592,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:AA68"/>
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
